--- a/data_excel/接口测试用例_  (1).xlsx
+++ b/data_excel/接口测试用例_  (1).xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="30" windowWidth="28035" windowHeight="9645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9645" windowWidth="28035" xWindow="240" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -69,46 +69,46 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -136,7 +136,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -147,49 +147,49 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <t>个人用户:
 必须填写</t>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <t>个人用户:
 必须填写</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <t>个人用户:
 必须填写</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <t>个人用户:
 必须填写</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0">
+    <comment authorId="1" ref="E1" shapeId="0">
       <text>
         <t>Administrator:
 请求头的单元格可以为空字典（只有花括号），但绝对不能是一个空单元格</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <t>个人用户:
 必须填写</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G1" shapeId="0">
       <text>
         <t>个人用户:
 必须填写</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="H1" shapeId="0">
       <text>
         <t>个人用户:
 K项必测，M项不测</t>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -498,19 +498,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col width="6.75" customWidth="1" style="2" min="1" max="1"/>
-    <col width="7.125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="44.25" customWidth="1" style="2" min="3" max="3"/>
-    <col width="10" customWidth="1" style="2" min="4" max="4"/>
-    <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
-    <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
-    <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
-    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
-    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
+    <col customWidth="1" max="1" min="1" style="2" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="2" width="7.125"/>
+    <col customWidth="1" max="3" min="3" style="2" width="44.25"/>
+    <col customWidth="1" max="4" min="4" style="2" width="10"/>
+    <col customWidth="1" max="5" min="5" style="2" width="22.5"/>
+    <col customWidth="1" max="6" min="6" style="2" width="32.25"/>
+    <col customWidth="1" max="7" min="7" style="2" width="19.75"/>
+    <col customWidth="1" max="8" min="8" style="2" width="11.5"/>
+    <col customWidth="1" max="9" min="9" style="2" width="28.75"/>
+    <col customWidth="1" max="12" min="10" style="4" width="14.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" customHeight="1" s="2">
+    <row customHeight="1" ht="29.25" r="1" s="2">
       <c r="A1" s="8" t="inlineStr">
         <is>
           <t>序列</t>
@@ -572,7 +572,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="57.75" customHeight="1" s="2">
+    <row customHeight="1" ht="57.75" r="2" s="2">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -625,11 +625,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-03 17:44:55', 'context': '查无结果', 'ftime': '2019-10-03 17:44:55'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-04-26 15:24:36', 'ftime': '2019-04-26 15:24:36', 'context': '已签收，签收人类型：', 'location': ''}, {'time': '2019-04-26 15:24:23', 'ftime': '2019-04-26 15:24:23', 'context': '派送中,派送人：蒲烙,电话:18881770523', 'location': ''}, {'time': '2019-04-26 13:13:22', 'ftime': '2019-04-26 13:13:22', 'context': '滞留-其他+正在卸车！稍后会及时为您派送！联系电话18881770523', 'location': ''}, {'time': '2019-04-26 10:53:45', 'ftime': '2019-04-26 10:53:45', 'context': '货物已到达南充顺庆区马市铺快递分部', 'location': ''}, {'time': '2019-04-26 07:48:21', 'ftime': '2019-04-26 07:48:21', 'context': '运输中，离开【重庆转运中心】，下一站【南充顺庆区马市铺快递分部】', 'location': ''}, {'time': '2019-04-26 01:36:54', 'ftime': '2019-04-26 01:36:54', 'context': '货物已到达重庆转运中心', 'location': ''}, {'time': '2019-04-25 04:19:20', 'ftime': '2019-04-25 04:19:20', 'context': '运输中，离开【广州转运中心】，下一站【重庆转运中心】', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.075638</v>
+        <v>0.125355</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="51" customHeight="1" s="2">
+    <row customHeight="1" ht="51" r="3" s="2">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -691,11 +691,11 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '25日星期六', 'high': '高温 28℃', 'fx': '西南风', 'low': '低温 11℃', 'fl': '&lt;![CDATA[3-4级]]&gt;', 'type': '多云'}, 'city': '西安', 'forecast': [{'date': '26日星期天', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '西风', 'type': '晴'}, {'date': '27日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期二', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '多云'}, {'date': '29日星期三', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '晴'}, {'date': '30日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '晴'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.013432</v>
+        <v>0.057532</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>200</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="4" s="2">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -750,11 +750,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-06 17:44:55', 'context': '查无结果', 'ftime': '2019-10-06 17:44:55'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-04-19 22:06:32', 'ftime': '2020-04-19 22:06:32', 'context': '[厦门中转部]快件已经到达 【厦门中转部】', 'location': '厦门中转部'}, {'time': '2020-04-19 04:04:14', 'ftime': '2020-04-19 04:04:14', 'context': '[广州中心]快件离开 【广州中心】 已发往 【厦门中转部】', 'location': '广州中心'}, {'time': '2020-04-19 04:00:34', 'ftime': '2020-04-19 04:00:34', 'context': '[广州中心]快件已经到达 【广州中心】', 'location': '广州中心'}, {'time': '2020-04-18 21:26:23', 'ftime': '2020-04-18 21:26:23', 'context': '[广州东区]快件离开 【广州东区】 已发往 【广州中心】', 'location': '广州东区'}, {'time': '2020-04-18 21:26:18', 'ftime': '2020-04-18 21:26:18', 'context': '[广州东区]【广州东区】（020-82175846） 的 久耶（02082175846） 已揽收', 'location': '广州东区'}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.066914</v>
+        <v>0.118086</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="5" s="2">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -807,11 +807,11 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '25日星期六', 'high': '高温 28℃', 'fx': '西南风', 'low': '低温 11℃', 'fl': '&lt;![CDATA[3-4级]]&gt;', 'type': '多云'}, 'city': '西安', 'forecast': [{'date': '26日星期天', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '西风', 'type': '晴'}, {'date': '27日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期二', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '多云'}, {'date': '29日星期三', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '晴'}, {'date': '30日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '晴'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0.01052</v>
+        <v>0.013499</v>
       </c>
       <c r="K5" s="3" t="n">
         <v>200</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="6" s="2">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -866,11 +866,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 09:58:03', 'ftime': '2019-10-08 09:58:03', 'context': '山西高平公司-长平东街路北站点(18536127749)-派件中', 'location': None}, {'time': '2019-10-08 09:13:03', 'ftime': '2019-10-08 09:13:03', 'context': '已到达-山西高平公司', 'location': None}, {'time': '2019-10-08 08:34:23', 'ftime': '2019-10-08 08:34:23', 'context': '已到达-山西高平公司', 'location': None}, {'time': '2019-10-07 08:43:33', 'ftime': '2019-10-07 08:43:33', 'context': '山西太原转运中心-已发往-山西高平公司', 'location': None}, {'time': '2019-10-07 08:27:37', 'ftime': '2019-10-07 08:27:37', 'context': '已到达-山西太原转运中心', 'location': None}, {'time': '2019-10-06 04:31:28', 'ftime': '2019-10-06 04:31:28', 'context': '江苏淮安转运中心-已装袋发往-山西太原转运中心', 'location': None}, {'time': '2019-10-06 04:31:28', 'ftime': '2019-10-06 04:31:28', 'context': '江苏淮安转运中心-已进行装车扫描', 'location': None}, {'time': '2019-10-06 04:28:15', 'ftime': '2019-10-06 04:28:15', 'context': '已到达-江苏淮安转运中心', 'location': None}, {'time': '2019-10-06 04:28:15', 'ftime': '2019-10-06 04:28:15', 'context': '快件已在【江苏淮安转运中心】进行卸车，扫描员【席东军】', 'location': None}, {'time': '2019-10-05 19:49:35', 'ftime': '2019-10-05 19:49:35', 'context': '江苏盐城中转部-已装袋发往-江苏淮安转运中心', 'location': None}, {'time': '2019-10-05 19:49:35', 'ftime': '2019-10-05 19:49:35', 'context': '江苏盐城中转部-已进行装车扫描', 'location': None}, {'time': '2019-10-05 19:32:57', 'ftime': '2019-10-05 19:32:57', 'context': '已到达-江苏盐城中转部', 'location': None}, {'time': '2019-10-05 17:44:28', 'ftime': '2019-10-05 17:44:28', 'context': '江苏盐城公司-已发往-江苏盐城中转部', 'location': None}, {'time': '2019-10-05 17:44:28', 'ftime': '2019-10-05 17:44:28', 'context': '江苏盐城公司-已进行装袋扫描', 'location': None}, {'time': '2019-10-05 17:42:20', 'ftime': '2019-10-05 17:42:20', 'context': '江苏盐城公司-自动化扫描(13921806893,0515-88233790)-已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-04 16:45:03', 'context': '查无结果', 'ftime': '2020-04-04 16:45:03'}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.07475</v>
+        <v>0.08074099999999999</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="7" s="2">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -923,11 +923,11 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '25日星期六', 'high': '高温 28℃', 'fx': '西南风', 'low': '低温 11℃', 'fl': '&lt;![CDATA[3-4级]]&gt;', 'type': '多云'}, 'city': '西安', 'forecast': [{'date': '26日星期天', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '西风', 'type': '晴'}, {'date': '27日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期二', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '多云'}, {'date': '29日星期三', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '晴'}, {'date': '30日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '晴'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J7" s="3" t="n">
-        <v>0.00962</v>
+        <v>0.017921</v>
       </c>
       <c r="K7" s="3" t="n">
         <v>200</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="8" s="2">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -982,11 +982,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 17:44:56', 'context': '查无结果', 'ftime': '2019-09-09 17:44:56'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-06 16:45:03', 'context': '查无结果', 'ftime': '2020-04-06 16:45:03'}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.067685</v>
+        <v>0.079875</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="9" s="2">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -1039,11 +1039,11 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '25日星期六', 'high': '高温 28℃', 'fx': '西南风', 'low': '低温 11℃', 'fl': '&lt;![CDATA[3-4级]]&gt;', 'type': '多云'}, 'city': '西安', 'forecast': [{'date': '26日星期天', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '西风', 'type': '晴'}, {'date': '27日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期二', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '多云'}, {'date': '29日星期三', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '晴'}, {'date': '30日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '晴'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0.01055</v>
+        <v>0.016641</v>
       </c>
       <c r="K9" s="3" t="n">
         <v>200</v>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="10" s="2">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 02:16:32', 'ftime': '2019-10-08 02:16:32', 'context': '[广东深圳公司]进行装车扫描，发往：山西太原分拨中心', 'location': None}, {'time': '2019-10-08 01:58:36', 'ftime': '2019-10-08 01:58:36', 'context': '[广东深圳公司]进行揽件扫描', 'location': None}, {'time': '2019-10-08 01:48:09', 'ftime': '2019-10-08 01:48:09', 'context': '[广东深圳公司中心分拨分部]进行下级地点扫描，发往：山西太原分拨中心', 'location': None}, {'time': '2019-10-08 01:46:57', 'ftime': '2019-10-08 01:46:57', 'context': '[广东深圳公司中心分拨分部]进行揽件扫描', 'location': None}, {'time': '2019-10-07 20:13:18', 'ftime': '2019-10-07 20:13:18', 'context': '[广东深圳公司宝安区怡华分部]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-04-26 09:34:33', 'ftime': '2020-04-26 09:34:33', 'context': '离开【重庆永川大宗中心】,下一站【重庆市邮件处理中心】', 'location': '重庆永川大宗中心'}, {'time': '2020-04-26 09:31:03', 'ftime': '2020-04-26 09:31:03', 'context': '重庆市 【重庆永川大宗中心】已收件,揽投员:汤自勇,电话:13271966726', 'location': '重庆永川大宗中心'}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.068787</v>
+        <v>0.085379</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="11" s="2">
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
@@ -1155,11 +1155,11 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '25日星期六', 'high': '高温 28℃', 'fx': '西南风', 'low': '低温 11℃', 'fl': '&lt;![CDATA[3-4级]]&gt;', 'type': '多云'}, 'city': '西安', 'forecast': [{'date': '26日星期天', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '西风', 'type': '晴'}, {'date': '27日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期二', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '多云'}, {'date': '29日星期三', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '晴'}, {'date': '30日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '晴'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J11" s="3" t="n">
-        <v>0.009931000000000001</v>
+        <v>0.016419</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>200</v>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="12" s="2">
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
@@ -1223,11 +1223,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 15:20:41', 'ftime': '2019-10-08 15:20:41', 'context': '【青岛转运中心】 已发出 下一站 【山东省青岛市伊春路】', 'location': ''}, {'time': '2019-10-08 14:11:21', 'ftime': '2019-10-08 14:11:21', 'context': '【青岛转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-07 00:44:17', 'ftime': '2019-10-07 00:44:17', 'context': '【广州转运中心】 已发出 下一站 【青岛转运中心】', 'location': ''}, {'time': '2019-10-07 00:35:08', 'ftime': '2019-10-07 00:35:08', 'context': '【广州转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-06 20:48:49', 'ftime': '2019-10-06 20:48:49', 'context': '【广东省广州市花都区西城区】 已发出 下一站 【广州转运中心】', 'location': ''}, {'time': '2019-10-06 20:37:49', 'ftime': '2019-10-06 20:37:49', 'context': '【广东省广州市花都区西城区公司】 已打包', 'location': ''}, {'time': '2019-10-05 17:39:06', 'ftime': '2019-10-05 17:39:06', 'context': '【广东省广州市花都区西城区公司】 已收件 取件人: 尤艳珍 (15876574956)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-04-26 10:41:53', 'ftime': '2020-04-26 10:41:53', 'context': '仓库作业即将完成，预计2020-04-27发货出库', 'location': ''}, {'time': '2020-04-26 09:55:43', 'ftime': '2020-04-26 09:55:43', 'context': '您的商品已完成拣货', 'location': ''}, {'time': '2020-04-26 06:00:19', 'ftime': '2020-04-26 06:00:19', 'context': '已分配给出货仓库，南宁小件中心仓作业准备中', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.07277599999999999</v>
+        <v>0.091363</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="13" s="2">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '25日星期六', 'high': '高温 28℃', 'fx': '西南风', 'low': '低温 11℃', 'fl': '&lt;![CDATA[3-4级]]&gt;', 'type': '多云'}, 'city': '西安', 'forecast': [{'date': '26日星期天', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '西风', 'type': '晴'}, {'date': '27日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期二', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '多云'}, {'date': '29日星期三', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '晴'}, {'date': '30日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '晴'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J13" s="3" t="n">
-        <v>0.01011</v>
+        <v>0.015211</v>
       </c>
       <c r="K13" s="3" t="n">
         <v>200</v>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="14" s="2">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
@@ -1357,11 +1357,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-04 17:44:56', 'context': '查无结果', 'ftime': '2019-10-04 17:44:56'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2020-04-26 10:19:43', 'ftime': '2020-04-26 10:19:43', 'context': '快件已由【丰巢的福德花园B区(丰巢智能快递柜)】代签收, 如有问题请电联（18926533841 / 4000633333,18926533841）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2020-04-26 08:55:43', 'ftime': '2020-04-26 08:55:43', 'context': '【罗湖新秀】 的陈剑波（18926533841） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2020-04-26 07:43:34', 'ftime': '2020-04-26 07:43:34', 'context': '快件已经到达 【罗湖新秀】', 'location': ''}, {'time': '2020-04-26 05:22:39', 'ftime': '2020-04-26 05:22:39', 'context': '快件离开 【深圳中心】 已发往 【罗湖新秀】', 'location': ''}, {'time': '2020-04-26 05:22:24', 'ftime': '2020-04-26 05:22:24', 'context': '快件已经到达 【深圳中心】', 'location': ''}, {'time': '2020-04-26 01:21:18', 'ftime': '2020-04-26 01:21:18', 'context': '快件离开 【广州中心】 已发往 【深圳中心】', 'location': ''}, {'time': '2020-04-26 01:19:04', 'ftime': '2020-04-26 01:19:04', 'context': '快件已经到达 【广州中心】', 'location': ''}, {'time': '2020-04-25 22:31:44', 'ftime': '2020-04-25 22:31:44', 'context': '快件离开 【广州均禾】 已发往 【深圳中心】', 'location': ''}, {'time': '2020-04-25 19:49:20', 'ftime': '2020-04-25 19:49:20', 'context': '【广州均禾】（020-31233863、020-31232813、020-22505289） 的 美克服饰（13060680226） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.063101</v>
+        <v>0.08651499999999999</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="15" s="2">
       <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
@@ -1414,11 +1414,11 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '25日星期六', 'high': '高温 28℃', 'fx': '西南风', 'low': '低温 11℃', 'fl': '&lt;![CDATA[3-4级]]&gt;', 'type': '多云'}, 'city': '西安', 'forecast': [{'date': '26日星期天', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '西风', 'type': '晴'}, {'date': '27日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期二', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '多云'}, {'date': '29日星期三', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '晴'}, {'date': '30日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '晴'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0.010105</v>
+        <v>0.020054</v>
       </c>
       <c r="K15" s="3" t="n">
         <v>200</v>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="16" s="2">
       <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
@@ -1473,11 +1473,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-18 17:44:56', 'context': '查无结果', 'ftime': '2019-09-18 17:44:56'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-05 16:45:04', 'context': '查无结果', 'ftime': '2020-04-05 16:45:04'}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.06603199999999999</v>
+        <v>0.079952</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="17" s="2">
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
@@ -1530,11 +1530,11 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '25日星期六', 'high': '高温 28℃', 'fx': '西南风', 'low': '低温 11℃', 'fl': '&lt;![CDATA[3-4级]]&gt;', 'type': '多云'}, 'city': '西安', 'forecast': [{'date': '26日星期天', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '西风', 'type': '晴'}, {'date': '27日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期二', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '多云'}, {'date': '29日星期三', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '晴'}, {'date': '30日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '晴'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J17" s="3" t="n">
-        <v>0.008538</v>
+        <v>0.018626</v>
       </c>
       <c r="K17" s="3" t="n">
         <v>200</v>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="18" s="2">
       <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
@@ -1598,11 +1598,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-14 17:44:56', 'context': '查无结果', 'ftime': '2019-09-14 17:44:56'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-18 16:45:04', 'context': '查无结果', 'ftime': '2020-04-18 16:45:04'}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.067285</v>
+        <v>0.07974000000000001</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="39.95" customHeight="1" s="2">
+    <row customHeight="1" ht="39.95" r="19" s="2">
       <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
@@ -1664,11 +1664,11 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '25日星期六', 'high': '高温 28℃', 'fx': '西南风', 'low': '低温 11℃', 'fl': '&lt;![CDATA[3-4级]]&gt;', 'type': '多云'}, 'city': '西安', 'forecast': [{'date': '26日星期天', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '西风', 'type': '晴'}, {'date': '27日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期二', 'high': '高温 30℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '多云'}, {'date': '29日星期三', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '东南风', 'type': '晴'}, {'date': '30日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '晴'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J19" s="3" t="n">
-        <v>0.010633</v>
+        <v>0.020537</v>
       </c>
       <c r="K19" s="3" t="n">
         <v>200</v>
@@ -1679,44 +1679,44 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="39.95" customHeight="1" s="2"/>
-    <row r="21" ht="39.95" customHeight="1" s="2"/>
+    <row customHeight="1" ht="39.95" r="20" s="2"/>
+    <row customHeight="1" ht="39.95" r="21" s="2"/>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+    <cfRule dxfId="1" operator="equal" priority="2" type="cellIs">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+    <cfRule dxfId="0" operator="equal" priority="1" type="cellIs">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="H2:H19" type="list">
       <formula1>"K,M"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C19" r:id="rId18"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data_excel/接口测试用例_  (1).xlsx
+++ b/data_excel/接口测试用例_  (1).xlsx
@@ -625,11 +625,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-04-26 15:24:36', 'ftime': '2019-04-26 15:24:36', 'context': '已签收，签收人类型：', 'location': ''}, {'time': '2019-04-26 15:24:23', 'ftime': '2019-04-26 15:24:23', 'context': '派送中,派送人：蒲烙,电话:18881770523', 'location': ''}, {'time': '2019-04-26 13:13:22', 'ftime': '2019-04-26 13:13:22', 'context': '滞留-其他+正在卸车！稍后会及时为您派送！联系电话18881770523', 'location': ''}, {'time': '2019-04-26 10:53:45', 'ftime': '2019-04-26 10:53:45', 'context': '货物已到达南充顺庆区马市铺快递分部', 'location': ''}, {'time': '2019-04-26 07:48:21', 'ftime': '2019-04-26 07:48:21', 'context': '运输中，离开【重庆转运中心】，下一站【南充顺庆区马市铺快递分部】', 'location': ''}, {'time': '2019-04-26 01:36:54', 'ftime': '2019-04-26 01:36:54', 'context': '货物已到达重庆转运中心', 'location': ''}, {'time': '2019-04-25 04:19:20', 'ftime': '2019-04-25 04:19:20', 'context': '运输中，离开【广州转运中心】，下一站【重庆转运中心】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-04-26 06:41:58', 'ftime': '2020-04-26 06:41:58', 'context': '运输中，到达成都转运场', 'location': ''}, {'time': '2020-04-25 06:52:10', 'ftime': '2020-04-25 06:52:10', 'context': '运输中，离开【长沙转运中心】，下一部门【成都转运场】', 'location': ''}, {'time': '2020-04-24 22:11:39', 'ftime': '2020-04-24 22:11:39', 'context': '运输中，到达长沙转运中心', 'location': ''}, {'time': '2020-04-24 18:48:14', 'ftime': '2020-04-24 18:48:14', 'context': '运输中，离开【邵阳双清区东大路营业部】，下一部门【长沙转运中心】', 'location': ''}, {'time': '2020-04-24 09:11:53', 'ftime': '2020-04-24 09:11:53', 'context': '您的订单已被收件员揽收，【邵阳双清区东大路营业部,电话：16626352633】库存中', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.125355</v>
+        <v>0.134687</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.057532</v>
+        <v>0.165275</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>200</v>
@@ -750,11 +750,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-04-19 22:06:32', 'ftime': '2020-04-19 22:06:32', 'context': '[厦门中转部]快件已经到达 【厦门中转部】', 'location': '厦门中转部'}, {'time': '2020-04-19 04:04:14', 'ftime': '2020-04-19 04:04:14', 'context': '[广州中心]快件离开 【广州中心】 已发往 【厦门中转部】', 'location': '广州中心'}, {'time': '2020-04-19 04:00:34', 'ftime': '2020-04-19 04:00:34', 'context': '[广州中心]快件已经到达 【广州中心】', 'location': '广州中心'}, {'time': '2020-04-18 21:26:23', 'ftime': '2020-04-18 21:26:23', 'context': '[广州东区]快件离开 【广州东区】 已发往 【广州中心】', 'location': '广州东区'}, {'time': '2020-04-18 21:26:18', 'ftime': '2020-04-18 21:26:18', 'context': '[广州东区]【广州东区】（020-82175846） 的 久耶（02082175846） 已揽收', 'location': '广州东区'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-30 14:37:33', 'ftime': '2019-07-30 14:37:33', 'context': '已签收，签收人类型：代收点签收', 'location': ''}, {'time': '2019-07-30 14:33:26', 'ftime': '2019-07-30 14:33:26', 'context': '派送中,派送人：石守明,电话:18952969687', 'location': ''}, {'time': '2019-07-30 13:18:14', 'ftime': '2019-07-30 13:18:14', 'context': '货物已到达镇江句容市宝华镇营业部', 'location': ''}, {'time': '2019-07-30 11:49:54', 'ftime': '2019-07-30 11:49:54', 'context': '运输中，离开【南京转运场】，下一站【镇江句容市宝华镇营业部】', 'location': ''}, {'time': '2019-07-30 06:00:59', 'ftime': '2019-07-30 06:00:59', 'context': '货物已到达南京转运场', 'location': ''}, {'time': '2019-07-30 00:54:30', 'ftime': '2019-07-30 00:54:30', 'context': '运输中，离开【上海浦东大区】，下一站【南京转运场】', 'location': ''}, {'time': '2019-07-29 20:41:49', 'ftime': '2019-07-29 20:41:49', 'context': '货物已到达上海浦东大区', 'location': ''}, {'time': '2019-07-29 19:48:22', 'ftime': '2019-07-29 19:48:22', 'context': '运输中，离开【上海浦东周浦万达快递分部】，下一站【上海浦东大区】', 'location': ''}, {'time': '2019-07-29 12:04:00', 'ftime': '2019-07-29 12:04:00', 'context': '您的订单已被收件员揽收，【上海浦东周浦万达快递分部,电话：18075413290】库存中', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.118086</v>
+        <v>0.090755</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0.013499</v>
+        <v>0.01973</v>
       </c>
       <c r="K5" s="3" t="n">
         <v>200</v>
@@ -866,11 +866,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-04 16:45:03', 'context': '查无结果', 'ftime': '2020-04-04 16:45:03'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-21 17:09:20', 'context': '查无结果', 'ftime': '2020-04-21 17:09:20'}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.08074099999999999</v>
+        <v>0.075071</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="J7" s="3" t="n">
-        <v>0.017921</v>
+        <v>0.017808</v>
       </c>
       <c r="K7" s="3" t="n">
         <v>200</v>
@@ -982,11 +982,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-06 16:45:03', 'context': '查无结果', 'ftime': '2020-04-06 16:45:03'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2020-04-24 13:24:02', 'ftime': '2020-04-24 13:24:02', 'context': '快件已在 【东莞横沥】 签收, 签收人: 门卫前台, 如有疑问请电联:（18046909030）, 投诉电话:（0769-83724828）, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2020-04-24 09:12:53', 'ftime': '2020-04-24 09:12:53', 'context': '【东莞横沥】 的李成玉（18046909030） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2020-04-24 08:19:01', 'ftime': '2020-04-24 08:19:01', 'context': '快件已经到达 【东莞横沥】', 'location': ''}, {'time': '2020-04-24 01:12:51', 'ftime': '2020-04-24 01:12:51', 'context': '快件离开 【东莞中心】 已发往 【东莞横沥】', 'location': ''}, {'time': '2020-04-24 00:03:33', 'ftime': '2020-04-24 00:03:33', 'context': '快件已经到达 【东莞中心】', 'location': ''}, {'time': '2020-04-22 21:10:35', 'ftime': '2020-04-22 21:10:35', 'context': '快件离开 【南京中转部】 已发往 【东莞中心】', 'location': ''}, {'time': '2020-04-22 21:08:41', 'ftime': '2020-04-22 21:08:41', 'context': '快件已经到达 【南京中转部】', 'location': ''}, {'time': '2020-04-22 20:05:19', 'ftime': '2020-04-22 20:05:19', 'context': '快件离开 【南京江宁区】 已发往 【东莞中心】', 'location': ''}, {'time': '2020-04-22 18:05:16', 'ftime': '2020-04-22 18:05:16', 'context': '【江宁开发区十六部】（025-84931161） 的 邵传虎18160836959（18160836959） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.079875</v>
+        <v>0.08405600000000001</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0.016641</v>
+        <v>0.022367</v>
       </c>
       <c r="K9" s="3" t="n">
         <v>200</v>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-04-26 09:34:33', 'ftime': '2020-04-26 09:34:33', 'context': '离开【重庆永川大宗中心】,下一站【重庆市邮件处理中心】', 'location': '重庆永川大宗中心'}, {'time': '2020-04-26 09:31:03', 'ftime': '2020-04-26 09:31:03', 'context': '重庆市 【重庆永川大宗中心】已收件,揽投员:汤自勇,电话:13271966726', 'location': '重庆永川大宗中心'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2020-04-20 12:31:24', 'ftime': '2020-04-20 12:31:24', 'context': '快件已在 【杭州乔司区】 签收, 签收人: 同事/同学, 如有疑问请电联:（18968087783）, 投诉电话:（0571-86161309）, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2020-04-20 06:36:26', 'ftime': '2020-04-20 06:36:26', 'context': '【杭州乔司区】 的余志勇18968087783（18968087783） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2020-04-20 06:35:47', 'ftime': '2020-04-20 06:35:47', 'context': '快件已经到达 【杭州乔司区】', 'location': ''}, {'time': '2020-04-20 03:47:54', 'ftime': '2020-04-20 03:47:54', 'context': '快件离开 【杭州中转部】 已发往 【杭州乔司区】', 'location': ''}, {'time': '2020-04-20 03:47:33', 'ftime': '2020-04-20 03:47:33', 'context': '快件已经到达 【杭州中转部】', 'location': ''}, {'time': '2020-04-19 21:49:18', 'ftime': '2020-04-19 21:49:18', 'context': '快件离开 【无锡中转部】 已发往 【杭州中转部】', 'location': ''}, {'time': '2020-04-19 21:47:10', 'ftime': '2020-04-19 21:47:10', 'context': '快件已经到达 【无锡中转部】', 'location': ''}, {'time': '2020-04-19 18:24:28', 'ftime': '2020-04-19 18:24:28', 'context': '快件离开 【宜兴】 已发往 【杭州中转部】', 'location': ''}, {'time': '2020-04-19 16:51:53', 'ftime': '2020-04-19 16:51:53', 'context': '快件已经到达 【宜兴】', 'location': ''}, {'time': '2020-04-19 16:51:32', 'ftime': '2020-04-19 16:51:32', 'context': '【宜兴徐舍一部】（0510-87663209） 的 徐舍店（18915337171） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.085379</v>
+        <v>0.085267</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="J11" s="3" t="n">
-        <v>0.016419</v>
+        <v>0.014361</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>200</v>
@@ -1223,11 +1223,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-04-26 10:41:53', 'ftime': '2020-04-26 10:41:53', 'context': '仓库作业即将完成，预计2020-04-27发货出库', 'location': ''}, {'time': '2020-04-26 09:55:43', 'ftime': '2020-04-26 09:55:43', 'context': '您的商品已完成拣货', 'location': ''}, {'time': '2020-04-26 06:00:19', 'ftime': '2020-04-26 06:00:19', 'context': '已分配给出货仓库，南宁小件中心仓作业准备中', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2020-04-24 13:54:56', 'ftime': '2020-04-24 13:54:56', 'context': '客户签收人: 门面 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：17784476270，投诉电话：023-62825789', 'location': ''}, {'time': '2020-04-24 08:23:51', 'ftime': '2020-04-24 08:23:51', 'context': '【重庆市永川区公司】 派件中 派件人: 王欢 电话 17784476270 如有疑问，请联系：023-62825789', 'location': ''}, {'time': '2020-04-24 08:05:45', 'ftime': '2020-04-24 08:05:45', 'context': '【重庆市永川区公司】 已收入', 'location': ''}, {'time': '2020-04-24 05:02:40', 'ftime': '2020-04-24 05:02:40', 'context': '【重庆转运中心】 已发出 下一站 【重庆市永川区公司】', 'location': ''}, {'time': '2020-04-24 04:35:49', 'ftime': '2020-04-24 04:35:49', 'context': '【重庆转运中心公司】 已收入', 'location': ''}, {'time': '2020-04-23 03:17:27', 'ftime': '2020-04-23 03:17:27', 'context': '【广州转运中心】 已发出 下一站 【重庆转运中心公司】', 'location': ''}, {'time': '2020-04-23 02:48:22', 'ftime': '2020-04-23 02:48:22', 'context': '【广州转运中心公司】 已收入', 'location': ''}, {'time': '2020-04-22 23:23:00', 'ftime': '2020-04-22 23:23:00', 'context': '【广东省广州市白云区大源】 已发出 下一站 【广州转运中心公司】', 'location': ''}, {'time': '2020-04-22 22:35:58', 'ftime': '2020-04-22 22:35:58', 'context': '【广东省广州市白云区大源公司】 已打包', 'location': ''}, {'time': '2020-04-22 22:26:11', 'ftime': '2020-04-22 22:26:11', 'context': '【广东省广州市白云区大源公司】 已收件 取件人: 杨婵 (13268039276)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.091363</v>
+        <v>0.092498</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" s="3" t="n">
-        <v>0.015211</v>
+        <v>0.015918</v>
       </c>
       <c r="K13" s="3" t="n">
         <v>200</v>
@@ -1357,11 +1357,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2020-04-26 10:19:43', 'ftime': '2020-04-26 10:19:43', 'context': '快件已由【丰巢的福德花园B区(丰巢智能快递柜)】代签收, 如有问题请电联（18926533841 / 4000633333,18926533841）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2020-04-26 08:55:43', 'ftime': '2020-04-26 08:55:43', 'context': '【罗湖新秀】 的陈剑波（18926533841） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2020-04-26 07:43:34', 'ftime': '2020-04-26 07:43:34', 'context': '快件已经到达 【罗湖新秀】', 'location': ''}, {'time': '2020-04-26 05:22:39', 'ftime': '2020-04-26 05:22:39', 'context': '快件离开 【深圳中心】 已发往 【罗湖新秀】', 'location': ''}, {'time': '2020-04-26 05:22:24', 'ftime': '2020-04-26 05:22:24', 'context': '快件已经到达 【深圳中心】', 'location': ''}, {'time': '2020-04-26 01:21:18', 'ftime': '2020-04-26 01:21:18', 'context': '快件离开 【广州中心】 已发往 【深圳中心】', 'location': ''}, {'time': '2020-04-26 01:19:04', 'ftime': '2020-04-26 01:19:04', 'context': '快件已经到达 【广州中心】', 'location': ''}, {'time': '2020-04-25 22:31:44', 'ftime': '2020-04-25 22:31:44', 'context': '快件离开 【广州均禾】 已发往 【深圳中心】', 'location': ''}, {'time': '2020-04-25 19:49:20', 'ftime': '2020-04-25 19:49:20', 'context': '【广州均禾】（020-31233863、020-31232813、020-22505289） 的 美克服饰（13060680226） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-21 17:09:20', 'context': '查无结果', 'ftime': '2020-04-21 17:09:20'}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.08651499999999999</v>
+        <v>0.078221</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0.020054</v>
+        <v>0.018014</v>
       </c>
       <c r="K15" s="3" t="n">
         <v>200</v>
@@ -1473,11 +1473,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-05 16:45:04', 'context': '查无结果', 'ftime': '2020-04-05 16:45:04'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2020-04-24 17:39:49', 'ftime': '2020-04-24 17:39:49', 'context': '【湛江市】您的快件已被 省导代 代签收，地址：红旗二路，如有疑问请电联快递员：符省导【15766405547】。', 'location': None}, {'time': '2020-04-24 17:27:20', 'ftime': '2020-04-24 17:27:20', 'context': '【湛江市】您的快件已被 省导代 代签收，地址：红旗二路，如有疑问请电联快递员：符省导【15766405547】。', 'location': None}, {'time': '2020-04-24 17:15:19', 'ftime': '2020-04-24 17:15:19', 'context': '【湛江市】广东湛江公司徐闻县分部 快递员 符省导15766405547 正在为您派件【95114/95121/9501395546为韵达快递员外呼专属号码，请放心接听】', 'location': None}, {'time': '2020-04-24 09:51:44', 'ftime': '2020-04-24 09:51:44', 'context': '【湛江市】已离开 广东湛江公司；发往 广东湛江公司徐闻县分部', 'location': None}, {'time': '2020-04-23 06:14:19', 'ftime': '2020-04-23 06:14:19', 'context': '【中山市】已离开 广东中山分拨中心；发往 广东湛江公司徐闻县分部', 'location': None}, {'time': '2020-04-23 05:32:27', 'ftime': '2020-04-23 05:32:27', 'context': '【中山市】已到达 广东中山分拨中心', 'location': None}, {'time': '2020-04-22 07:17:31', 'ftime': '2020-04-22 07:17:31', 'context': '【昆明市】已离开 云南昆明分拨中心；发往 广东中山分拨中心', 'location': None}, {'time': '2020-04-22 06:29:25', 'ftime': '2020-04-22 06:29:25', 'context': '【昆明市】已离开 云南昆明分拨中心；发往 广东中山分拨中心', 'location': None}, {'time': '2020-04-22 06:17:50', 'ftime': '2020-04-22 06:17:50', 'context': '【昆明市】已到达 云南昆明分拨中心', 'location': None}, {'time': '2020-04-21 16:20:54', 'ftime': '2020-04-21 16:20:54', 'context': '【文山壮族苗族自治州】云南文山州公司 已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.079952</v>
+        <v>0.085407</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="J17" s="3" t="n">
-        <v>0.018626</v>
+        <v>0.016622</v>
       </c>
       <c r="K17" s="3" t="n">
         <v>200</v>
@@ -1598,11 +1598,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-18 16:45:04', 'context': '查无结果', 'ftime': '2020-04-18 16:45:04'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-03-30 17:09:21', 'context': '查无结果', 'ftime': '2020-03-30 17:09:21'}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.07974000000000001</v>
+        <v>0.077321</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="J19" s="3" t="n">
-        <v>0.020537</v>
+        <v>0.015929</v>
       </c>
       <c r="K19" s="3" t="n">
         <v>200</v>
